--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkd44\Desktop\ZControl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33FDB87C-0EEC-47D4-A06F-85B5147E8292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD87A64A-36EA-41FA-A3E3-AA0AF1F83237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{B44B1A82-C557-42BE-820E-78BB13FF989F}"/>
+    <workbookView xWindow="0" yWindow="2010" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{B44B1A82-C557-42BE-820E-78BB13FF989F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="A1:I20"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2221,8 +2221,8 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
-        <f>(255+29)/2 + 25</f>
-        <v>167</v>
+        <f>(255+29)/2</f>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2236,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,24 +2279,24 @@
         <v>55.686274509803923</v>
       </c>
       <c r="C2" s="1">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="D2" s="1">
-        <v>-958</v>
+        <v>-912</v>
       </c>
       <c r="E2" s="1">
-        <v>9998</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1">
-        <v>-3245</v>
+        <v>-3100</v>
       </c>
       <c r="G2" s="1">
         <f>(F2-D2)/(E2-C2)</f>
-        <v>-0.32680765933123751</v>
+        <v>-0.3126607602172049</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2" si="1">G2/360*60</f>
-        <v>-5.4467943221872921E-2</v>
+        <v>-5.2110126702867486E-2</v>
       </c>
       <c r="I2" s="1">
         <v>0.89200000000000002</v>
